--- a/medicine/Enfance/Anton_Quintana/Anton_Quintana.xlsx
+++ b/medicine/Enfance/Anton_Quintana/Anton_Quintana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anton Quintana, nom de plume d'Antoon Adolf Kuyten[1], né le 6 septembre 1937 à Amsterdam et mort à Hoorn le 15 octobre 2017[2], est un romancier et scénariste néerlandais, auteur de plusieurs romans policiers, récits de science-fiction et ouvrages de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anton Quintana, nom de plume d'Antoon Adolf Kuyten, né le 6 septembre 1937 à Amsterdam et mort à Hoorn le 15 octobre 2017, est un romancier et scénariste néerlandais, auteur de plusieurs romans policiers, récits de science-fiction et ouvrages de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a surtout publié des romans policiers et des textes de science-fiction et parfois d'horreur. Il est également scénariste, notamment pour les séries télévisées Duel in de diepte (nl) et La Malédiction du kriss pusaka. Il écrit aussi du théâtre radiophonique, en collaboration avec De overdracht van de Najade (nl), qui a été diffusé par l'AVRO. 
 Il est aussi reconnu pour ses livres pour enfants, notamment grâce au roman Le Roi des babouins (De bavianenkoning), publié en 1982.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Het kille ontwaken (1969)
 De verre vriend (1969)
@@ -595,14 +611,16 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1970 : ANV-Visser Neerlandia-prijs pour De vrouw onder het schavot.
 1973 : ANV-Visser Neerlandia-prijs pour Het zout der aarde.
 1983 : Gouden Griffel pour De bavianenkoning
 1996 : Woutertje Pieterse Prijs (nl) pour Het boek van Bod Pa
 1996 : Gouden Uil pour Het boek van Bod Pa
-1998 : (international) « Honour List »[3] de l' IBBY pour Het boek van Bod Pa</t>
+1998 : (international) « Honour List » de l' IBBY pour Het boek van Bod Pa</t>
         </is>
       </c>
     </row>
